--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lrpap1-Sort1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lrpap1-Sort1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.191447666666667</v>
+        <v>7.892066666666667</v>
       </c>
       <c r="H2">
-        <v>24.574343</v>
+        <v>23.6762</v>
       </c>
       <c r="I2">
-        <v>0.185794284429433</v>
+        <v>0.1739002798877711</v>
       </c>
       <c r="J2">
-        <v>0.185794284429433</v>
+        <v>0.1739002798877711</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.383699</v>
+        <v>1.619868333333333</v>
       </c>
       <c r="N2">
-        <v>4.151097</v>
+        <v>4.859605</v>
       </c>
       <c r="O2">
-        <v>0.08080976933214185</v>
+        <v>0.1089327058120143</v>
       </c>
       <c r="P2">
-        <v>0.08080976933214185</v>
+        <v>0.1089327058120143</v>
       </c>
       <c r="Q2">
-        <v>11.334497944919</v>
+        <v>12.78410887788889</v>
       </c>
       <c r="R2">
-        <v>102.010481504271</v>
+        <v>115.056979901</v>
       </c>
       <c r="S2">
-        <v>0.01501399326797283</v>
+        <v>0.01894342802964151</v>
       </c>
       <c r="T2">
-        <v>0.01501399326797283</v>
+        <v>0.01894342802964151</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.191447666666667</v>
+        <v>7.892066666666667</v>
       </c>
       <c r="H3">
-        <v>24.574343</v>
+        <v>23.6762</v>
       </c>
       <c r="I3">
-        <v>0.185794284429433</v>
+        <v>0.1739002798877711</v>
       </c>
       <c r="J3">
-        <v>0.185794284429433</v>
+        <v>0.1739002798877711</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>7.386282</v>
       </c>
       <c r="O3">
-        <v>0.1437893994387872</v>
+        <v>0.1655705935257241</v>
       </c>
       <c r="P3">
-        <v>0.1437893994387872</v>
+        <v>0.1655705935257241</v>
       </c>
       <c r="Q3">
-        <v>20.168114151414</v>
+        <v>19.4310099876</v>
       </c>
       <c r="R3">
-        <v>181.513027362726</v>
+        <v>174.8790898884</v>
       </c>
       <c r="S3">
-        <v>0.02671524857726738</v>
+        <v>0.0287927725553078</v>
       </c>
       <c r="T3">
-        <v>0.02671524857726739</v>
+        <v>0.0287927725553078</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.191447666666667</v>
+        <v>7.892066666666667</v>
       </c>
       <c r="H4">
-        <v>24.574343</v>
+        <v>23.6762</v>
       </c>
       <c r="I4">
-        <v>0.185794284429433</v>
+        <v>0.1739002798877711</v>
       </c>
       <c r="J4">
-        <v>0.185794284429433</v>
+        <v>0.1739002798877711</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.941088000000001</v>
+        <v>7.682722666666667</v>
       </c>
       <c r="N4">
-        <v>26.823264</v>
+        <v>23.048168</v>
       </c>
       <c r="O4">
-        <v>0.5221708325715213</v>
+        <v>0.5166467859527435</v>
       </c>
       <c r="P4">
-        <v>0.5221708325715213</v>
+        <v>0.5166467859527435</v>
       </c>
       <c r="Q4">
-        <v>73.24045443506134</v>
+        <v>60.63255946684445</v>
       </c>
       <c r="R4">
-        <v>659.1640899155522</v>
+        <v>545.6930352016001</v>
       </c>
       <c r="S4">
-        <v>0.09701635618754706</v>
+        <v>0.08984502068029944</v>
       </c>
       <c r="T4">
-        <v>0.09701635618754706</v>
+        <v>0.08984502068029944</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.191447666666667</v>
+        <v>7.892066666666667</v>
       </c>
       <c r="H5">
-        <v>24.574343</v>
+        <v>23.6762</v>
       </c>
       <c r="I5">
-        <v>0.185794284429433</v>
+        <v>0.1739002798877711</v>
       </c>
       <c r="J5">
-        <v>0.185794284429433</v>
+        <v>0.1739002798877711</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.336036333333333</v>
+        <v>3.105673</v>
       </c>
       <c r="N5">
-        <v>13.008109</v>
+        <v>9.317019</v>
       </c>
       <c r="O5">
-        <v>0.2532299986575496</v>
+        <v>0.2088499147095181</v>
       </c>
       <c r="P5">
-        <v>0.2532299986575496</v>
+        <v>0.2088499147095181</v>
       </c>
       <c r="Q5">
-        <v>35.51841470526522</v>
+        <v>24.51017836086667</v>
       </c>
       <c r="R5">
-        <v>319.6657323473871</v>
+        <v>220.5916052478</v>
       </c>
       <c r="S5">
-        <v>0.04704868639664572</v>
+        <v>0.03631905862252231</v>
       </c>
       <c r="T5">
-        <v>0.04704868639664572</v>
+        <v>0.03631905862252231</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>51.95310600000001</v>
       </c>
       <c r="I6">
-        <v>0.3927913821808576</v>
+        <v>0.3815924715300191</v>
       </c>
       <c r="J6">
-        <v>0.3927913821808576</v>
+        <v>0.3815924715300191</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.383699</v>
+        <v>1.619868333333333</v>
       </c>
       <c r="N6">
-        <v>4.151097</v>
+        <v>4.859605</v>
       </c>
       <c r="O6">
-        <v>0.08080976933214185</v>
+        <v>0.1089327058120143</v>
       </c>
       <c r="P6">
-        <v>0.08080976933214185</v>
+        <v>0.1089327058120143</v>
       </c>
       <c r="Q6">
-        <v>23.962486939698</v>
+        <v>28.05239707590334</v>
       </c>
       <c r="R6">
-        <v>215.662382457282</v>
+        <v>252.47157368313</v>
       </c>
       <c r="S6">
-        <v>0.03174138098968827</v>
+        <v>0.04156790044125901</v>
       </c>
       <c r="T6">
-        <v>0.03174138098968827</v>
+        <v>0.04156790044125901</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>51.95310600000001</v>
       </c>
       <c r="I7">
-        <v>0.3927913821808576</v>
+        <v>0.3815924715300191</v>
       </c>
       <c r="J7">
-        <v>0.3927913821808576</v>
+        <v>0.3815924715300191</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>7.386282</v>
       </c>
       <c r="O7">
-        <v>0.1437893994387872</v>
+        <v>0.1655705935257241</v>
       </c>
       <c r="P7">
-        <v>0.1437893994387872</v>
+        <v>0.1655705935257241</v>
       </c>
       <c r="Q7">
         <v>42.637810187988</v>
@@ -883,10 +883,10 @@
         <v>383.7402916918921</v>
       </c>
       <c r="S7">
-        <v>0.05647923694851666</v>
+        <v>0.06318049199617325</v>
       </c>
       <c r="T7">
-        <v>0.05647923694851667</v>
+        <v>0.06318049199617325</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>51.95310600000001</v>
       </c>
       <c r="I8">
-        <v>0.3927913821808576</v>
+        <v>0.3815924715300191</v>
       </c>
       <c r="J8">
-        <v>0.3927913821808576</v>
+        <v>0.3815924715300191</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.941088000000001</v>
+        <v>7.682722666666667</v>
       </c>
       <c r="N8">
-        <v>26.823264</v>
+        <v>23.048168</v>
       </c>
       <c r="O8">
-        <v>0.5221708325715213</v>
+        <v>0.5166467859527435</v>
       </c>
       <c r="P8">
-        <v>0.5221708325715213</v>
+        <v>0.5166467859527435</v>
       </c>
       <c r="Q8">
-        <v>154.839097539776</v>
+        <v>133.0471016899787</v>
       </c>
       <c r="R8">
-        <v>1393.551877857984</v>
+        <v>1197.423915209808</v>
       </c>
       <c r="S8">
-        <v>0.205104203060297</v>
+        <v>0.1971485239597481</v>
       </c>
       <c r="T8">
-        <v>0.205104203060297</v>
+        <v>0.1971485239597482</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>51.95310600000001</v>
       </c>
       <c r="I9">
-        <v>0.3927913821808576</v>
+        <v>0.3815924715300191</v>
       </c>
       <c r="J9">
-        <v>0.3927913821808576</v>
+        <v>0.3815924715300191</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.336036333333333</v>
+        <v>3.105673</v>
       </c>
       <c r="N9">
-        <v>13.008109</v>
+        <v>9.317019</v>
       </c>
       <c r="O9">
-        <v>0.2532299986575496</v>
+        <v>0.2088499147095181</v>
       </c>
       <c r="P9">
-        <v>0.2532299986575496</v>
+        <v>0.2088499147095181</v>
       </c>
       <c r="Q9">
-        <v>75.09018508183934</v>
+        <v>53.783119523446</v>
       </c>
       <c r="R9">
-        <v>675.8116657365541</v>
+        <v>484.0480757110141</v>
       </c>
       <c r="S9">
-        <v>0.09946656118235563</v>
+        <v>0.07969555513283869</v>
       </c>
       <c r="T9">
-        <v>0.09946656118235563</v>
+        <v>0.0796955551328387</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.228371</v>
+        <v>7.716272666666666</v>
       </c>
       <c r="H10">
-        <v>18.685113</v>
+        <v>23.148818</v>
       </c>
       <c r="I10">
-        <v>0.1412687695991749</v>
+        <v>0.1700266904854272</v>
       </c>
       <c r="J10">
-        <v>0.1412687695991749</v>
+        <v>0.1700266904854272</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.383699</v>
+        <v>1.619868333333333</v>
       </c>
       <c r="N10">
-        <v>4.151097</v>
+        <v>4.859605</v>
       </c>
       <c r="O10">
-        <v>0.08080976933214185</v>
+        <v>0.1089327058120143</v>
       </c>
       <c r="P10">
-        <v>0.08080976933214185</v>
+        <v>0.1089327058120143</v>
       </c>
       <c r="Q10">
-        <v>8.618190724329001</v>
+        <v>12.49934574409889</v>
       </c>
       <c r="R10">
-        <v>77.563716518961</v>
+        <v>112.49411169689</v>
       </c>
       <c r="S10">
-        <v>0.01141589668514482</v>
+        <v>0.01852146745483945</v>
       </c>
       <c r="T10">
-        <v>0.01141589668514481</v>
+        <v>0.01852146745483945</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.228371</v>
+        <v>7.716272666666666</v>
       </c>
       <c r="H11">
-        <v>18.685113</v>
+        <v>23.148818</v>
       </c>
       <c r="I11">
-        <v>0.1412687695991749</v>
+        <v>0.1700266904854272</v>
       </c>
       <c r="J11">
-        <v>0.1412687695991749</v>
+        <v>0.1700266904854272</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>7.386282</v>
       </c>
       <c r="O11">
-        <v>0.1437893994387872</v>
+        <v>0.1655705935257241</v>
       </c>
       <c r="P11">
-        <v>0.1437893994387872</v>
+        <v>0.1655705935257241</v>
       </c>
       <c r="Q11">
-        <v>15.334834868874</v>
+        <v>18.998188634964</v>
       </c>
       <c r="R11">
-        <v>138.013513819866</v>
+        <v>170.983697714676</v>
       </c>
       <c r="S11">
-        <v>0.02031295154012176</v>
+        <v>0.02815142005888678</v>
       </c>
       <c r="T11">
-        <v>0.02031295154012176</v>
+        <v>0.02815142005888678</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.228371</v>
+        <v>7.716272666666666</v>
       </c>
       <c r="H12">
-        <v>18.685113</v>
+        <v>23.148818</v>
       </c>
       <c r="I12">
-        <v>0.1412687695991749</v>
+        <v>0.1700266904854272</v>
       </c>
       <c r="J12">
-        <v>0.1412687695991749</v>
+        <v>0.1700266904854272</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.941088000000001</v>
+        <v>7.682722666666667</v>
       </c>
       <c r="N12">
-        <v>26.823264</v>
+        <v>23.048168</v>
       </c>
       <c r="O12">
-        <v>0.5221708325715213</v>
+        <v>0.5166467859527435</v>
       </c>
       <c r="P12">
-        <v>0.5221708325715213</v>
+        <v>0.5166467859527435</v>
       </c>
       <c r="Q12">
-        <v>55.688413207648</v>
+        <v>59.28198291838044</v>
       </c>
       <c r="R12">
-        <v>501.195718868832</v>
+        <v>533.5378462654239</v>
       </c>
       <c r="S12">
-        <v>0.07376643103795558</v>
+        <v>0.08784374316547788</v>
       </c>
       <c r="T12">
-        <v>0.07376643103795556</v>
+        <v>0.0878437431654779</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.228371</v>
+        <v>7.716272666666666</v>
       </c>
       <c r="H13">
-        <v>18.685113</v>
+        <v>23.148818</v>
       </c>
       <c r="I13">
-        <v>0.1412687695991749</v>
+        <v>0.1700266904854272</v>
       </c>
       <c r="J13">
-        <v>0.1412687695991749</v>
+        <v>0.1700266904854272</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.336036333333333</v>
+        <v>3.105673</v>
       </c>
       <c r="N13">
-        <v>13.008109</v>
+        <v>9.317019</v>
       </c>
       <c r="O13">
-        <v>0.2532299986575496</v>
+        <v>0.2088499147095181</v>
       </c>
       <c r="P13">
-        <v>0.2532299986575496</v>
+        <v>0.2088499147095181</v>
       </c>
       <c r="Q13">
-        <v>27.00644295347967</v>
+        <v>23.96421968150466</v>
       </c>
       <c r="R13">
-        <v>243.057986581317</v>
+        <v>215.677977133542</v>
       </c>
       <c r="S13">
-        <v>0.03577349033595275</v>
+        <v>0.0355100598062231</v>
       </c>
       <c r="T13">
-        <v>0.03577349033595274</v>
+        <v>0.03551005980622311</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>12.35128266666667</v>
+        <v>12.45667266666667</v>
       </c>
       <c r="H14">
-        <v>37.053848</v>
+        <v>37.370018</v>
       </c>
       <c r="I14">
-        <v>0.2801455637905346</v>
+        <v>0.2744805580967825</v>
       </c>
       <c r="J14">
-        <v>0.2801455637905346</v>
+        <v>0.2744805580967826</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.383699</v>
+        <v>1.619868333333333</v>
       </c>
       <c r="N14">
-        <v>4.151097</v>
+        <v>4.859605</v>
       </c>
       <c r="O14">
-        <v>0.08080976933214185</v>
+        <v>0.1089327058120143</v>
       </c>
       <c r="P14">
-        <v>0.08080976933214185</v>
+        <v>0.1089327058120143</v>
       </c>
       <c r="Q14">
-        <v>17.090457474584</v>
+        <v>20.17816959143223</v>
       </c>
       <c r="R14">
-        <v>153.814117271256</v>
+        <v>181.60352632289</v>
       </c>
       <c r="S14">
-        <v>0.02263849838933593</v>
+        <v>0.02989990988627431</v>
       </c>
       <c r="T14">
-        <v>0.02263849838933593</v>
+        <v>0.02989990988627431</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>12.35128266666667</v>
+        <v>12.45667266666667</v>
       </c>
       <c r="H15">
-        <v>37.053848</v>
+        <v>37.370018</v>
       </c>
       <c r="I15">
-        <v>0.2801455637905346</v>
+        <v>0.2744805580967825</v>
       </c>
       <c r="J15">
-        <v>0.2801455637905346</v>
+        <v>0.2744805580967826</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>7.386282</v>
       </c>
       <c r="O15">
-        <v>0.1437893994387872</v>
+        <v>0.1655705935257241</v>
       </c>
       <c r="P15">
-        <v>0.1437893994387872</v>
+        <v>0.1655705935257241</v>
       </c>
       <c r="Q15">
-        <v>30.410018945904</v>
+        <v>30.669499032564</v>
       </c>
       <c r="R15">
-        <v>273.690170513136</v>
+        <v>276.025491293076</v>
       </c>
       <c r="S15">
-        <v>0.04028196237288142</v>
+        <v>0.04544590891535629</v>
       </c>
       <c r="T15">
-        <v>0.04028196237288142</v>
+        <v>0.04544590891535629</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>12.35128266666667</v>
+        <v>12.45667266666667</v>
       </c>
       <c r="H16">
-        <v>37.053848</v>
+        <v>37.370018</v>
       </c>
       <c r="I16">
-        <v>0.2801455637905346</v>
+        <v>0.2744805580967825</v>
       </c>
       <c r="J16">
-        <v>0.2801455637905346</v>
+        <v>0.2744805580967826</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.941088000000001</v>
+        <v>7.682722666666667</v>
       </c>
       <c r="N16">
-        <v>26.823264</v>
+        <v>23.048168</v>
       </c>
       <c r="O16">
-        <v>0.5221708325715213</v>
+        <v>0.5166467859527435</v>
       </c>
       <c r="P16">
-        <v>0.5221708325715213</v>
+        <v>0.5166467859527435</v>
       </c>
       <c r="Q16">
-        <v>110.4339052355413</v>
+        <v>95.70116144744712</v>
       </c>
       <c r="R16">
-        <v>993.9051471198721</v>
+        <v>861.3104530270241</v>
       </c>
       <c r="S16">
-        <v>0.1462838422857217</v>
+        <v>0.141809498147218</v>
       </c>
       <c r="T16">
-        <v>0.1462838422857217</v>
+        <v>0.141809498147218</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>12.35128266666667</v>
+        <v>12.45667266666667</v>
       </c>
       <c r="H17">
-        <v>37.053848</v>
+        <v>37.370018</v>
       </c>
       <c r="I17">
-        <v>0.2801455637905346</v>
+        <v>0.2744805580967825</v>
       </c>
       <c r="J17">
-        <v>0.2801455637905346</v>
+        <v>0.2744805580967826</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.336036333333333</v>
+        <v>3.105673</v>
       </c>
       <c r="N17">
-        <v>13.008109</v>
+        <v>9.317019</v>
       </c>
       <c r="O17">
-        <v>0.2532299986575496</v>
+        <v>0.2088499147095181</v>
       </c>
       <c r="P17">
-        <v>0.2532299986575496</v>
+        <v>0.2088499147095181</v>
       </c>
       <c r="Q17">
-        <v>53.5556104059369</v>
+        <v>38.68635197070467</v>
       </c>
       <c r="R17">
-        <v>482.000493653432</v>
+        <v>348.177167736342</v>
       </c>
       <c r="S17">
-        <v>0.07094126074259557</v>
+        <v>0.05732524114793395</v>
       </c>
       <c r="T17">
-        <v>0.07094126074259556</v>
+        <v>0.05732524114793396</v>
       </c>
     </row>
   </sheetData>
